--- a/Übung/Netzplan_Übung2.xlsx
+++ b/Übung/Netzplan_Übung2.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="37">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -283,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -320,59 +320,66 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+      <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="medium"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
+      <left style="thin"/>
       <right/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="medium"/>
-      <top style="medium"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
-      <right style="medium"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="hair"/>
-      <top style="medium"/>
+      <left style="thin"/>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="hair"/>
-      <top/>
-      <bottom style="medium"/>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="medium"/>
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin"/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -401,7 +408,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -462,6 +469,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -482,6 +493,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -530,38 +557,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -600,6 +595,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -611,7 +622,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="6">
     <dxf>
       <font>
         <name val="Arial"/>
@@ -636,42 +647,6 @@
           <bgColor rgb="FFCC0000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="1"/>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -967,7 +942,7 @@
   <dimension ref="A1:BL45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="topLeft" activeCell="R21" activeCellId="0" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1425,34 +1400,58 @@
       <c r="AE12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
+      <c r="A13" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="13" t="n">
+        <v>6</v>
+      </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
+      <c r="F13" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13" t="n">
+        <v>13</v>
+      </c>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="0"/>
+      <c r="K13" s="11" t="n">
+        <v>13</v>
+      </c>
+      <c r="L13" s="12"/>
+      <c r="M13" s="13" t="n">
+        <v>18</v>
+      </c>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
+      <c r="P13" s="11" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13" t="n">
+        <v>21</v>
+      </c>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
-      <c r="U13" s="0"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
+      <c r="U13" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="V13" s="12"/>
+      <c r="W13" s="13" t="n">
+        <v>24</v>
+      </c>
       <c r="X13" s="0"/>
       <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
-      <c r="AB13" s="0"/>
+      <c r="Z13" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="13" t="n">
+        <v>35</v>
+      </c>
       <c r="AC13" s="0"/>
       <c r="AD13" s="0"/>
       <c r="AE13" s="0"/>
@@ -1463,100 +1462,173 @@
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="0"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="0"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0"/>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
-      <c r="AB14" s="0"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="V14" s="14"/>
+      <c r="W14" s="14"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
       <c r="AC14" s="0"/>
       <c r="AD14" s="0"/>
       <c r="AE14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="15" t="n">
+      <c r="A15" s="16" t="n">
         <f aca="false">VLOOKUP(A14,$A$2:$E$10,5)</f>
         <v>6</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
+      <c r="F15" s="16" t="n">
+        <f aca="false">VLOOKUP(F14,$A$2:$E$10,5)</f>
+        <v>7</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="0"/>
+      <c r="K15" s="16" t="n">
+        <f aca="false">VLOOKUP(K14,$A$2:$E$10,5)</f>
+        <v>5</v>
+      </c>
+      <c r="L15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M15" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
+      <c r="P15" s="16" t="n">
+        <f aca="false">VLOOKUP(P14,$A$2:$E$10,5)</f>
+        <v>3</v>
+      </c>
+      <c r="Q15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
-      <c r="U15" s="0"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
+      <c r="U15" s="16" t="n">
+        <f aca="false">VLOOKUP(U14,$A$2:$E$10,5)</f>
+        <v>3</v>
+      </c>
+      <c r="V15" s="17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" s="18" t="n">
+        <v>2</v>
+      </c>
       <c r="X15" s="0"/>
       <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
-      <c r="AB15" s="0"/>
+      <c r="Z15" s="16" t="n">
+        <f aca="false">VLOOKUP(Z14,$A$2:$E$10,5)</f>
+        <v>9</v>
+      </c>
+      <c r="AA15" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="AC15" s="0"/>
       <c r="AD15" s="0"/>
       <c r="AE15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18"/>
+      <c r="A16" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="0"/>
+      <c r="C16" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D16" s="21"/>
       <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
+      <c r="F16" s="19" t="n">
+        <v>8</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="20" t="n">
+        <v>15</v>
+      </c>
       <c r="I16" s="0"/>
       <c r="J16" s="0"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="0"/>
-      <c r="M16" s="0"/>
+      <c r="K16" s="19" t="n">
+        <v>15</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="20" t="n">
+        <v>20</v>
+      </c>
       <c r="N16" s="0"/>
       <c r="O16" s="0"/>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
-      <c r="R16" s="0"/>
+      <c r="P16" s="19" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="20" t="n">
+        <v>23</v>
+      </c>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
-      <c r="U16" s="0"/>
-      <c r="V16" s="0"/>
-      <c r="W16" s="0"/>
+      <c r="U16" s="19" t="n">
+        <v>23</v>
+      </c>
+      <c r="V16" s="12"/>
+      <c r="W16" s="20" t="n">
+        <v>26</v>
+      </c>
       <c r="X16" s="0"/>
-      <c r="Y16" s="0"/>
-      <c r="Z16" s="0"/>
-      <c r="AA16" s="0"/>
-      <c r="AB16" s="0"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="20" t="n">
+        <v>35</v>
+      </c>
       <c r="AC16" s="0"/>
       <c r="AD16" s="0"/>
       <c r="AE16" s="0"/>
@@ -1565,7 +1637,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="0"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
       <c r="G17" s="0"/>
@@ -1586,7 +1658,7 @@
       <c r="V17" s="0"/>
       <c r="W17" s="0"/>
       <c r="X17" s="0"/>
-      <c r="Y17" s="0"/>
+      <c r="Y17" s="24"/>
       <c r="Z17" s="0"/>
       <c r="AA17" s="0"/>
       <c r="AB17" s="0"/>
@@ -1598,7 +1670,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="0"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="0"/>
       <c r="F18" s="0"/>
       <c r="G18" s="0"/>
@@ -1619,7 +1691,7 @@
       <c r="V18" s="0"/>
       <c r="W18" s="0"/>
       <c r="X18" s="0"/>
-      <c r="Y18" s="0"/>
+      <c r="Y18" s="24"/>
       <c r="Z18" s="0"/>
       <c r="AA18" s="0"/>
       <c r="AB18" s="0"/>
@@ -1631,28 +1703,40 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="0"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+      <c r="F19" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
+      <c r="K19" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L19" s="12"/>
+      <c r="M19" s="13" t="n">
+        <v>19</v>
+      </c>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
+      <c r="P19" s="11" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13" t="n">
+        <v>26</v>
+      </c>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="0"/>
       <c r="V19" s="0"/>
       <c r="W19" s="0"/>
       <c r="X19" s="0"/>
-      <c r="Y19" s="0"/>
+      <c r="Y19" s="24"/>
       <c r="Z19" s="0"/>
       <c r="AA19" s="0"/>
       <c r="AB19" s="0"/>
@@ -1661,28 +1745,34 @@
       <c r="AE19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0"/>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
-      <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
-      <c r="R20" s="0"/>
-      <c r="S20" s="0"/>
-      <c r="T20" s="0"/>
-      <c r="U20" s="0"/>
-      <c r="V20" s="0"/>
-      <c r="W20" s="0"/>
-      <c r="X20" s="0"/>
-      <c r="Y20" s="0"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="24"/>
       <c r="Z20" s="0"/>
       <c r="AA20" s="0"/>
       <c r="AB20" s="0"/>
@@ -1693,19 +1783,40 @@
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
+      <c r="F21" s="16" t="n">
+        <f aca="false">VLOOKUP(F20,$A$2:$E$10,5)</f>
+        <v>4</v>
+      </c>
+      <c r="G21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="I21" s="0"/>
       <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
-      <c r="M21" s="0"/>
+      <c r="K21" s="16" t="n">
+        <f aca="false">VLOOKUP(K20,$A$2:$E$10,5)</f>
+        <v>9</v>
+      </c>
+      <c r="L21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
-      <c r="R21" s="0"/>
+      <c r="P21" s="16" t="n">
+        <f aca="false">VLOOKUP(P20,$A$2:$E$10,5)</f>
+        <v>7</v>
+      </c>
+      <c r="Q21" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
       <c r="U21" s="0"/>
@@ -1723,19 +1834,31 @@
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D22" s="0"/>
       <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
+      <c r="F22" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" s="12"/>
+      <c r="H22" s="20" t="n">
+        <v>10</v>
+      </c>
       <c r="I22" s="0"/>
       <c r="J22" s="0"/>
-      <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
-      <c r="M22" s="0"/>
+      <c r="K22" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="20" t="n">
+        <v>19</v>
+      </c>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
-      <c r="R22" s="0"/>
+      <c r="P22" s="19" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="20" t="n">
+        <v>26</v>
+      </c>
       <c r="S22" s="0"/>
       <c r="T22" s="0"/>
       <c r="U22" s="0"/>
@@ -1960,141 +2083,149 @@
       <c r="AD31" s="4"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="4"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="22" t="s">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
+      <c r="A35" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="27" t="s">
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="22" t="s">
+      <c r="J35" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="27" t="s">
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="R35" s="22" t="s">
+      <c r="R35" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
-      <c r="AA35" s="22"/>
-      <c r="AB35" s="22"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="27"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="33" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="4"/>
-      <c r="C36" s="29" t="s">
+      <c r="C36" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="A38" s="35"/>
+      <c r="C38" s="35"/>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="30"/>
-      <c r="C39" s="30"/>
+      <c r="A39" s="35"/>
+      <c r="C39" s="35"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="30"/>
-      <c r="C40" s="30"/>
+      <c r="A40" s="35"/>
+      <c r="C40" s="35"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="30"/>
-      <c r="C41" s="30"/>
+      <c r="A41" s="35"/>
+      <c r="C41" s="35"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="30"/>
-      <c r="C42" s="30"/>
+      <c r="A42" s="35"/>
+      <c r="C42" s="35"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="30"/>
-      <c r="C43" s="30"/>
+      <c r="A43" s="35"/>
+      <c r="C43" s="35"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="30"/>
-      <c r="C44" s="30"/>
+      <c r="A44" s="35"/>
+      <c r="C44" s="35"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="30"/>
-      <c r="C45" s="30"/>
+      <c r="A45" s="35"/>
+      <c r="C45" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="19">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A14:C14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="P20:R20"/>
     <mergeCell ref="D33:H33"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="D34:H34"/>
@@ -2105,7 +2236,7 @@
     <mergeCell ref="A37:A45"/>
     <mergeCell ref="C37:C45"/>
   </mergeCells>
-  <conditionalFormatting sqref="B15">
+  <conditionalFormatting sqref="B15 G15 G21 L15 L21 Q15 Q21 V15 AA15">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>0</formula>
     </cfRule>
@@ -2133,7 +2264,7 @@
   <dimension ref="A1:BL53"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2145,11 +2276,11 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
       <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2237,19 +2368,60 @@
       <c r="BK6" s="0"/>
       <c r="BL6" s="0"/>
     </row>
+    <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
+      <c r="G9" s="0"/>
+      <c r="H9" s="0"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
+      <c r="L9" s="0"/>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
+      <c r="R9" s="0"/>
+      <c r="S9" s="0"/>
+    </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11"/>
+      <c r="A10" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="F10" s="11"/>
+      <c r="C10" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="K10" s="11"/>
+      <c r="H10" s="13" t="n">
+        <v>13</v>
+      </c>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="11" t="n">
+        <v>13</v>
+      </c>
       <c r="L10" s="12"/>
-      <c r="M10" s="13"/>
-      <c r="P10" s="11"/>
+      <c r="M10" s="13" t="n">
+        <v>18</v>
+      </c>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="11" t="n">
+        <v>18</v>
+      </c>
       <c r="Q10" s="12"/>
-      <c r="R10" s="13"/>
+      <c r="R10" s="13" t="n">
+        <v>27</v>
+      </c>
+      <c r="S10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
@@ -2257,351 +2429,499 @@
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="14" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="33"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="14" t="s">
         <v>2</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="33"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
       <c r="P11" s="14" t="s">
         <v>7</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="14"/>
+      <c r="S11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="15" t="n">
+      <c r="A12" s="16" t="n">
         <f aca="false">VLOOKUP(A11,$A$2:$E$6,5)</f>
         <v>6</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="34"/>
-      <c r="F12" s="15" t="n">
+      <c r="B12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0"/>
+      <c r="E12" s="0"/>
+      <c r="F12" s="16" t="n">
         <f aca="false">VLOOKUP(F11,$A$2:$E$6,5)</f>
         <v>7</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="K12" s="15" t="n">
+      <c r="G12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="16" t="n">
         <f aca="false">VLOOKUP(K11,$A$2:$E$6,5)</f>
         <v>5</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="17"/>
-      <c r="P12" s="15" t="n">
+      <c r="L12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="16" t="n">
         <f aca="false">VLOOKUP(P11,$A$2:$E$6,5)</f>
         <v>9</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="17"/>
+      <c r="Q12" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="35"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="19" t="n">
+        <v>6</v>
+      </c>
       <c r="G13" s="12"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="18"/>
+      <c r="H13" s="20" t="n">
+        <v>13</v>
+      </c>
+      <c r="I13" s="0"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="19" t="n">
+        <v>13</v>
+      </c>
       <c r="L13" s="12"/>
-      <c r="M13" s="19"/>
-      <c r="P13" s="18"/>
+      <c r="M13" s="20" t="n">
+        <v>18</v>
+      </c>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="19" t="n">
+        <v>18</v>
+      </c>
       <c r="Q13" s="12"/>
-      <c r="R13" s="19"/>
+      <c r="R13" s="20" t="n">
+        <v>27</v>
+      </c>
+      <c r="S13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="0"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="0"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="36"/>
-      <c r="F16" s="11"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="11" t="n">
+        <v>6</v>
+      </c>
       <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="36"/>
+      <c r="H16" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" s="0"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="36"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="14" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="39"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F18" s="15" t="n">
+      <c r="D18" s="0"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="16" t="n">
         <f aca="false">VLOOKUP(F17,$A$2:$E$6,5)</f>
         <v>4</v>
       </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
+      <c r="G18" s="17" t="n">
+        <v>3</v>
+      </c>
+      <c r="H18" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F19" s="18"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="19" t="n">
+        <v>9</v>
+      </c>
       <c r="G19" s="12"/>
-      <c r="H19" s="19"/>
+      <c r="H19" s="20" t="n">
+        <v>13</v>
+      </c>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="40"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="38"/>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="40"/>
-      <c r="B41" s="42" t="s">
+      <c r="A41" s="37"/>
+      <c r="B41" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42" t="s">
+      <c r="C41" s="39"/>
+      <c r="D41" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
-      <c r="L41" s="41"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="38"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="40"/>
-      <c r="B42" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C42" s="43"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="44" t="s">
+      <c r="A42" s="37"/>
+      <c r="B42" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="38"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="40"/>
-      <c r="B43" s="45" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D43" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="41"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="38"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="40"/>
-      <c r="B44" s="42" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42" t="s">
+      <c r="C44" s="39"/>
+      <c r="D44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="41"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="38"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="40"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="41"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="38"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="40"/>
-      <c r="B46" s="47" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="48" t="s">
+      <c r="C46" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="41"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="38"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="40"/>
-      <c r="B47" s="47" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="48"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="48"/>
-      <c r="J47" s="48"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="41"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="38"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="40"/>
-      <c r="B48" s="47" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="41"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="38"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40"/>
-      <c r="B49" s="47" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="41"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="38"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40"/>
-      <c r="B50" s="45" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="41"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="38"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40"/>
-      <c r="B51" s="46" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="41"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="38"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40"/>
-      <c r="B52" s="49" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="41"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="38"/>
+      <c r="J52" s="38"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="38"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
-      <c r="L53" s="41"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="38"/>
+      <c r="J53" s="38"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -2620,33 +2940,13 @@
     <mergeCell ref="C50:K50"/>
     <mergeCell ref="C51:K51"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q12">
+  <conditionalFormatting sqref="B12 G12 G18 L12 Q12">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L12">
+  <conditionalFormatting sqref="C42:C43 B51">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C43 B51">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2668,7 +2968,7 @@
   <dimension ref="A1:BL55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2811,14 +3111,22 @@
       <c r="BL8" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11"/>
+      <c r="A11" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
+      <c r="F11" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13" t="n">
+        <v>13</v>
+      </c>
       <c r="I11" s="0"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
@@ -2826,9 +3134,13 @@
       <c r="M11" s="0"/>
       <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
+      <c r="P11" s="11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13" t="n">
+        <v>26</v>
+      </c>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0"/>
@@ -2840,38 +3152,53 @@
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="0"/>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="0"/>
-      <c r="J12" s="0"/>
-      <c r="K12" s="0"/>
-      <c r="L12" s="0"/>
-      <c r="M12" s="0"/>
-      <c r="N12" s="0"/>
-      <c r="O12" s="0"/>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
-      <c r="R12" s="0"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="0"/>
       <c r="V12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="n">
+      <c r="A13" s="16" t="n">
         <f aca="false">VLOOKUP(A12,$A$2:$E$8,5)</f>
         <v>2</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
+      <c r="F13" s="16" t="n">
+        <f aca="false">VLOOKUP(F12,$A$2:$E$8,5)</f>
+        <v>11</v>
+      </c>
+      <c r="G13" s="17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H13" s="18" t="n">
+        <v>4</v>
+      </c>
       <c r="I13" s="0"/>
       <c r="J13" s="0"/>
       <c r="K13" s="0"/>
@@ -2879,33 +3206,52 @@
       <c r="M13" s="0"/>
       <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
+      <c r="P13" s="16" t="n">
+        <f aca="false">VLOOKUP(P12,$A$2:$E$8,5)</f>
+        <v>9</v>
+      </c>
+      <c r="Q13" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="0"/>
       <c r="V13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19" t="n">
+        <v>0</v>
+      </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="0"/>
+      <c r="C14" s="20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="21"/>
       <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
+      <c r="F14" s="19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G14" s="12"/>
+      <c r="H14" s="20" t="n">
+        <v>17</v>
+      </c>
       <c r="I14" s="0"/>
       <c r="J14" s="0"/>
       <c r="K14" s="0"/>
       <c r="L14" s="0"/>
       <c r="M14" s="0"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="19" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="20" t="n">
+        <v>26</v>
+      </c>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="0"/>
@@ -2913,7 +3259,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
       <c r="G15" s="0"/>
@@ -2923,8 +3269,8 @@
       <c r="K15" s="0"/>
       <c r="L15" s="0"/>
       <c r="M15" s="0"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
       <c r="P15" s="0"/>
       <c r="Q15" s="0"/>
       <c r="R15" s="0"/>
@@ -2935,7 +3281,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0"/>
-      <c r="D16" s="0"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
@@ -2945,8 +3291,8 @@
       <c r="K16" s="0"/>
       <c r="L16" s="0"/>
       <c r="M16" s="0"/>
-      <c r="N16" s="0"/>
-      <c r="O16" s="0"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
       <c r="P16" s="0"/>
       <c r="Q16" s="0"/>
       <c r="R16" s="0"/>
@@ -2957,18 +3303,26 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
+      <c r="F17" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13" t="n">
+        <v>6</v>
+      </c>
       <c r="I17" s="0"/>
       <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="0"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
+      <c r="K17" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L17" s="12"/>
+      <c r="M17" s="13" t="n">
+        <v>9</v>
+      </c>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
       <c r="P17" s="0"/>
       <c r="Q17" s="0"/>
       <c r="R17" s="0"/>
@@ -2979,18 +3333,22 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0"/>
-      <c r="D18" s="0"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="0"/>
-      <c r="I18" s="0"/>
-      <c r="J18" s="0"/>
-      <c r="K18" s="0"/>
-      <c r="L18" s="0"/>
-      <c r="M18" s="0"/>
-      <c r="N18" s="0"/>
-      <c r="O18" s="0"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="23"/>
       <c r="P18" s="0"/>
       <c r="Q18" s="0"/>
       <c r="R18" s="0"/>
@@ -3001,18 +3359,32 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
+      <c r="D19" s="24"/>
       <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
+      <c r="F19" s="16" t="n">
+        <f aca="false">VLOOKUP(F18,$A$2:$E$8,5)</f>
+        <v>4</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="H19" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="0"/>
+      <c r="K19" s="16" t="n">
+        <f aca="false">VLOOKUP(K18,$A$2:$E$8,5)</f>
+        <v>3</v>
+      </c>
+      <c r="L19" s="17" t="n">
+        <v>8</v>
+      </c>
+      <c r="M19" s="18" t="n">
+        <v>8</v>
+      </c>
       <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
+      <c r="O19" s="23"/>
       <c r="P19" s="0"/>
       <c r="Q19" s="0"/>
       <c r="R19" s="0"/>
@@ -3023,18 +3395,26 @@
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0"/>
-      <c r="D20" s="0"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
+      <c r="F20" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="20" t="n">
+        <v>14</v>
+      </c>
       <c r="I20" s="0"/>
       <c r="J20" s="0"/>
-      <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="M20" s="0"/>
+      <c r="K20" s="19" t="n">
+        <v>14</v>
+      </c>
+      <c r="L20" s="12"/>
+      <c r="M20" s="20" t="n">
+        <v>17</v>
+      </c>
       <c r="N20" s="0"/>
-      <c r="O20" s="0"/>
+      <c r="O20" s="23"/>
       <c r="P20" s="0"/>
       <c r="Q20" s="0"/>
       <c r="R20" s="0"/>
@@ -3045,7 +3425,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
+      <c r="D21" s="24"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
       <c r="G21" s="0"/>
@@ -3056,7 +3436,7 @@
       <c r="L21" s="0"/>
       <c r="M21" s="0"/>
       <c r="N21" s="0"/>
-      <c r="O21" s="0"/>
+      <c r="O21" s="23"/>
       <c r="P21" s="0"/>
       <c r="Q21" s="0"/>
       <c r="R21" s="0"/>
@@ -3067,7 +3447,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0"/>
-      <c r="D22" s="0"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="0"/>
       <c r="F22" s="0"/>
       <c r="G22" s="0"/>
@@ -3078,7 +3458,7 @@
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
       <c r="N22" s="0"/>
-      <c r="O22" s="0"/>
+      <c r="O22" s="23"/>
       <c r="P22" s="0"/>
       <c r="Q22" s="0"/>
       <c r="R22" s="0"/>
@@ -3089,18 +3469,26 @@
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0"/>
-      <c r="D23" s="0"/>
+      <c r="D23" s="24"/>
       <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
+      <c r="F23" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="I23" s="0"/>
       <c r="J23" s="0"/>
-      <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="M23" s="0"/>
+      <c r="K23" s="11" t="n">
+        <v>10</v>
+      </c>
+      <c r="L23" s="12"/>
+      <c r="M23" s="13" t="n">
+        <v>17</v>
+      </c>
       <c r="N23" s="0"/>
-      <c r="O23" s="0"/>
+      <c r="O23" s="23"/>
       <c r="P23" s="0"/>
       <c r="Q23" s="0"/>
       <c r="R23" s="0"/>
@@ -3111,18 +3499,22 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="0"/>
-      <c r="I24" s="0"/>
-      <c r="J24" s="0"/>
-      <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
-      <c r="M24" s="0"/>
-      <c r="N24" s="0"/>
-      <c r="O24" s="0"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="49"/>
       <c r="P24" s="0"/>
       <c r="Q24" s="0"/>
       <c r="R24" s="0"/>
@@ -3135,14 +3527,28 @@
       <c r="C25" s="0"/>
       <c r="D25" s="0"/>
       <c r="E25" s="0"/>
-      <c r="F25" s="0"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0"/>
+      <c r="F25" s="16" t="n">
+        <f aca="false">VLOOKUP(F24,$A$2:$E$8,5)</f>
+        <v>8</v>
+      </c>
+      <c r="G25" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="I25" s="0"/>
       <c r="J25" s="0"/>
-      <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
-      <c r="M25" s="0"/>
+      <c r="K25" s="16" t="n">
+        <f aca="false">VLOOKUP(K24,$A$2:$E$8,5)</f>
+        <v>7</v>
+      </c>
+      <c r="L25" s="17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="18" t="n">
+        <v>0</v>
+      </c>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
       <c r="P25" s="0"/>
@@ -3157,14 +3563,22 @@
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
-      <c r="F26" s="0"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0"/>
+      <c r="F26" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="20" t="n">
+        <v>10</v>
+      </c>
       <c r="I26" s="0"/>
       <c r="J26" s="0"/>
-      <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
-      <c r="M26" s="0"/>
+      <c r="K26" s="19" t="n">
+        <v>10</v>
+      </c>
+      <c r="L26" s="12"/>
+      <c r="M26" s="20" t="n">
+        <v>17</v>
+      </c>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
       <c r="P26" s="0"/>
@@ -3197,251 +3611,257 @@
       <c r="V27" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="40"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="38"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="40"/>
-      <c r="B43" s="42" t="s">
+      <c r="A43" s="37"/>
+      <c r="B43" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42" t="s">
+      <c r="C43" s="39"/>
+      <c r="D43" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
-      <c r="L43" s="41"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="38"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="40"/>
-      <c r="B44" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="44" t="s">
+      <c r="A44" s="37"/>
+      <c r="B44" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="G44" s="44"/>
-      <c r="H44" s="44"/>
-      <c r="I44" s="44"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="42"/>
-      <c r="L44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="38"/>
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="40"/>
-      <c r="B45" s="45" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C45" s="46" t="s">
+      <c r="C45" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="45" t="s">
+      <c r="D45" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
-      <c r="L45" s="41"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="38"/>
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="40"/>
-      <c r="B46" s="42" t="s">
+      <c r="A46" s="37"/>
+      <c r="B46" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42" t="s">
+      <c r="C46" s="39"/>
+      <c r="D46" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="42"/>
-      <c r="H46" s="42"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="42"/>
-      <c r="K46" s="42"/>
-      <c r="L46" s="41"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="38"/>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="40"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
-      <c r="L47" s="41"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="38"/>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="40"/>
-      <c r="B48" s="47" t="s">
+      <c r="A48" s="37"/>
+      <c r="B48" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="41"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="38"/>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="40"/>
-      <c r="B49" s="47" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="48" t="s">
+      <c r="C49" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="48"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="41"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+      <c r="H49" s="45"/>
+      <c r="I49" s="45"/>
+      <c r="J49" s="45"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="38"/>
     </row>
     <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="40"/>
-      <c r="B50" s="47" t="s">
+      <c r="A50" s="37"/>
+      <c r="B50" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="48" t="s">
+      <c r="C50" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="41"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="45"/>
+      <c r="J50" s="45"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="38"/>
     </row>
     <row r="51" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40"/>
-      <c r="B51" s="47" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="48" t="s">
+      <c r="C51" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="48"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="48"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="48"/>
-      <c r="J51" s="48"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="41"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="45"/>
+      <c r="J51" s="45"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="38"/>
     </row>
     <row r="52" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40"/>
-      <c r="B52" s="45" t="s">
+      <c r="A52" s="37"/>
+      <c r="B52" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="48"/>
-      <c r="E52" s="48"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="48"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="41"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="45"/>
+      <c r="J52" s="45"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="38"/>
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40"/>
-      <c r="B53" s="46" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="48"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="48"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="41"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="45"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="38"/>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="40"/>
-      <c r="B54" s="49" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="41"/>
-      <c r="L54" s="41"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="38"/>
+      <c r="J54" s="38"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="38"/>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="41"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="38"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A12:C12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="P12:R12"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="K24:M24"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="F44:J44"/>
     <mergeCell ref="C48:K48"/>
@@ -3451,13 +3871,13 @@
     <mergeCell ref="C52:K52"/>
     <mergeCell ref="C53:K53"/>
   </mergeCells>
-  <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+  <conditionalFormatting sqref="B13 G13 G19 G25 L19 L25 Q13">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C44:C45 B53">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
